--- a/Homework 1/Nassi – Schneiderman Diagrams.xlsx
+++ b/Homework 1/Nassi – Schneiderman Diagrams.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="99" documentId="8_{852D5EB0-D08E-452F-9C0D-04CD4BC2D880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A0469A-5B7D-4973-8607-426698DA822A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C27A923A-C209-42E1-949E-06704E0A99D8}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C27A923A-C209-42E1-949E-06704E0A99D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -329,6 +329,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,26 +356,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,12 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -390,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,25 +732,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9371F34D-DB77-474F-B589-C546F31D6619}">
   <dimension ref="G5:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="7:15" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
@@ -1022,31 +1018,31 @@
       <c r="O27" s="9"/>
     </row>
     <row r="28" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
     </row>
     <row r="30" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
     </row>
     <row r="32" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
@@ -1331,31 +1327,31 @@
       <c r="O53" s="9"/>
     </row>
     <row r="54" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="14"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="22"/>
     </row>
     <row r="56" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="17"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="19"/>
     </row>
     <row r="58" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G58" s="1"/>
@@ -1625,91 +1621,91 @@
       <c r="O78" s="9"/>
     </row>
     <row r="79" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="14"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="22"/>
     </row>
     <row r="81" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="7:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="17"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="19"/>
     </row>
     <row r="83" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="30"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="16"/>
     </row>
     <row r="84" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G84" s="1"/>
-      <c r="H84" s="31" t="s">
+      <c r="H84" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="33"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="31"/>
     </row>
     <row r="85" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G85" s="1"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="36"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="34"/>
     </row>
     <row r="86" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G86" s="1"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="36"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="34"/>
     </row>
     <row r="87" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="7:15" x14ac:dyDescent="0.3">
@@ -1717,23 +1713,23 @@
       <c r="H88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" s="3"/>
     </row>
     <row r="89" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="7:15" x14ac:dyDescent="0.3">
@@ -1741,35 +1737,35 @@
       <c r="H90" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
     <row r="91" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G92" s="1"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="19"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="13"/>
     </row>
     <row r="93" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G93" s="1"/>
@@ -1807,30 +1803,30 @@
       <c r="O95" s="28"/>
     </row>
     <row r="96" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G96" s="12" t="s">
+      <c r="G96" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="14"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G28:O28"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="G54:O54"/>
+    <mergeCell ref="G57:O57"/>
     <mergeCell ref="G82:O82"/>
     <mergeCell ref="G96:O96"/>
     <mergeCell ref="H93:O95"/>
     <mergeCell ref="H84:O86"/>
     <mergeCell ref="G79:O79"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G28:O28"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="G54:O54"/>
-    <mergeCell ref="G57:O57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
